--- a/blotter.xlsx
+++ b/blotter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE659BDE-C252-41ED-8C5A-E375743EC610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A3447AF-C3F2-4E8A-9B8F-190CCBE2F35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>

--- a/blotter.xlsx
+++ b/blotter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A3B0732-BEA2-498B-91B6-FDE22A6A1C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF9F7C6E-99BB-42F6-B9BF-39E0BB81E165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35028" yWindow="936" windowWidth="19920" windowHeight="15312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="19920" windowHeight="15312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
